--- a/relays-creator/examples/excel.xlsx
+++ b/relays-creator/examples/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBAFA0-9B74-8244-AEE1-255D8B3D3576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3B5F4-52CE-8E46-8DBC-B60A026E4C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{345AA04F-B42B-5143-968F-05FF6E902C33}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/relays-creator/examples/excel.xlsx
+++ b/relays-creator/examples/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3B5F4-52CE-8E46-8DBC-B60A026E4C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A55F80-C2A4-EC41-A0D7-030EC8C75F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{345AA04F-B42B-5143-968F-05FF6E902C33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Case Serial Number</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>script2</t>
+  </si>
+  <si>
+    <t>relay_100</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,9 +542,8 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>"Relay_"&amp;A2</f>
-        <v>Relay_script1</v>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>

--- a/relays-creator/examples/excel.xlsx
+++ b/relays-creator/examples/excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenezia/biot-tools/relays-creator/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuel/EPFL/Biot/tools/relays-creator/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A55F80-C2A4-EC41-A0D7-030EC8C75F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29CE2D-B3A2-3943-A8A3-ADBB8A7536E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{345AA04F-B42B-5143-968F-05FF6E902C33}"/>
   </bookViews>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>Case Serial Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>relay_id</t>
   </si>
@@ -48,12 +48,6 @@
     <t>floor</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>wifi_ssid</t>
   </si>
   <si>
@@ -78,13 +72,10 @@
     <t>password2</t>
   </si>
   <si>
-    <t>script1</t>
-  </si>
-  <si>
-    <t>script2</t>
-  </si>
-  <si>
     <t>relay_100</t>
+  </si>
+  <si>
+    <t>Relay_</t>
   </si>
 </sst>
 </file>
@@ -170,15 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -205,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -501,15 +489,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC67507-EC30-0445-A4BB-0825B1803F60}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +513,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -528,73 +522,45 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="str">
-        <f>"Relay_"&amp;A3</f>
-        <v>Relay_script2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
